--- a/academias/Lectura, Expresión Oral y Escrita - Estadisticos 20211.xlsx
+++ b/academias/Lectura, Expresión Oral y Escrita - Estadisticos 20211.xlsx
@@ -519,22 +519,25 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>35.71</v>
+      </c>
+      <c r="I2">
+        <v>7.8</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -551,22 +554,25 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>40.91</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>59.09</v>
+      </c>
+      <c r="I3">
+        <v>8.800000000000001</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>59.09</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,22 +589,25 @@
         <v>43</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>39.53</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>60.47</v>
+      </c>
+      <c r="I4">
+        <v>8.300000000000001</v>
       </c>
       <c r="J4">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -615,22 +624,25 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>8.800000000000001</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -787,22 +799,25 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>8.800000000000001</v>
       </c>
       <c r="J10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1345,22 +1360,25 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>35.71</v>
+      </c>
+      <c r="I2">
+        <v>7.8</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1377,22 +1395,25 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>40.91</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>59.09</v>
+      </c>
+      <c r="I3">
+        <v>8.800000000000001</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>59.09</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1409,22 +1430,25 @@
         <v>43</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>39.53</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>60.47</v>
+      </c>
+      <c r="I4">
+        <v>8.300000000000001</v>
       </c>
       <c r="J4">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1441,22 +1465,25 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>8.800000000000001</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1613,22 +1640,25 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>8.800000000000001</v>
       </c>
       <c r="J10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">

--- a/academias/Lectura, Expresión Oral y Escrita - Estadisticos 20211.xlsx
+++ b/academias/Lectura, Expresión Oral y Escrita - Estadisticos 20211.xlsx
@@ -554,25 +554,25 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>40.91</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>59.09</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>8.800000000000001</v>
       </c>
       <c r="J3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>59.09</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -589,25 +589,25 @@
         <v>43</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>39.53</v>
+        <v>53.49</v>
       </c>
       <c r="H4">
-        <v>60.47</v>
+        <v>46.51</v>
       </c>
       <c r="I4">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J4">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>60.47</v>
+        <v>46.51</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -621,28 +621,28 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>52.38</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>47.62</v>
       </c>
       <c r="I5">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -761,28 +761,28 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>32</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>72.73</v>
+        <v>74.42</v>
       </c>
       <c r="H9">
-        <v>27.27</v>
+        <v>25.58</v>
       </c>
       <c r="I9">
         <v>8.1</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9">
-        <v>27.27</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -866,28 +866,28 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>20</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>51.28</v>
+        <v>50</v>
       </c>
       <c r="H12">
-        <v>48.72</v>
+        <v>50</v>
       </c>
       <c r="I12">
         <v>9.300000000000001</v>
       </c>
       <c r="J12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>48.72</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1049,13 +1049,13 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>100</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>100</v>
@@ -1177,13 +1177,13 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>100</v>
       </c>
       <c r="J9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>100</v>
@@ -1273,13 +1273,13 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>100</v>
       </c>
       <c r="J12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -1395,25 +1395,25 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>40.91</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>59.09</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>8.800000000000001</v>
       </c>
       <c r="J3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>59.09</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1430,25 +1430,25 @@
         <v>43</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>39.53</v>
+        <v>53.49</v>
       </c>
       <c r="H4">
-        <v>60.47</v>
+        <v>46.51</v>
       </c>
       <c r="I4">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J4">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>60.47</v>
+        <v>46.51</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1462,28 +1462,28 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>52.38</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>47.62</v>
       </c>
       <c r="I5">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1602,28 +1602,28 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>32</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>72.73</v>
+        <v>74.42</v>
       </c>
       <c r="H9">
-        <v>27.27</v>
+        <v>25.58</v>
       </c>
       <c r="I9">
         <v>8.1</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9">
-        <v>27.27</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1707,28 +1707,28 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>20</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>51.28</v>
+        <v>50</v>
       </c>
       <c r="H12">
-        <v>48.72</v>
+        <v>50</v>
       </c>
       <c r="I12">
         <v>9.300000000000001</v>
       </c>
       <c r="J12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>48.72</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Lectura, Expresión Oral y Escrita - Estadisticos 20211.xlsx
+++ b/academias/Lectura, Expresión Oral y Escrita - Estadisticos 20211.xlsx
@@ -869,25 +869,25 @@
         <v>40</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K12">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1710,25 +1710,25 @@
         <v>40</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K12">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
